--- a/work1.xlsx
+++ b/work1.xlsx
@@ -45,12 +45,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002B5F75"/>
+        <fgColor rgb="00CB1B45"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CB1B45"/>
+        <fgColor rgb="002B5F75"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,8 +77,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -491,71 +491,71 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>95</v>
-      </c>
-      <c r="B2" t="n">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="D2" t="n">
-        <v>67</v>
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>33</v>
       </c>
       <c r="E2" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" t="n">
-        <v>390</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78</v>
+        <v>266</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>53.2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>83</v>
+      <c r="A3" s="3" t="n">
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>41</v>
+        <v>69</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84</v>
       </c>
       <c r="F3" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>57.8</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
         <v>84</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>67</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>55</v>
+      <c r="C4" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>318</v>
-      </c>
-      <c r="G4" t="n">
-        <v>63.6</v>
+        <v>254</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>50.8</v>
       </c>
     </row>
   </sheetData>
@@ -616,71 +616,71 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>52</v>
-      </c>
-      <c r="B2" t="n">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="F2" t="n">
-        <v>360</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72</v>
+        <v>259</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>51.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>68</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>86</v>
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>43</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>34.8</v>
+        <v>45.4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>75</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="A4" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>43</v>
+      <c r="B4" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="G4" t="n">
-        <v>59.2</v>
+        <v>71.8</v>
       </c>
     </row>
   </sheetData>
@@ -740,72 +740,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>80</v>
+      <c r="A2" s="3" t="n">
+        <v>19</v>
       </c>
       <c r="B2" t="n">
         <v>73</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E2" t="n">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>53.4</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>11</v>
+      <c r="A3" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>82</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F3" t="n">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>52</v>
+        <v>55.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B4" t="n">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>159</v>
+        <v>262</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>31.8</v>
+        <v>52.4</v>
       </c>
     </row>
   </sheetData>
@@ -866,71 +866,71 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="C2" t="n">
-        <v>69</v>
+        <v>22</v>
+      </c>
+      <c r="B2" t="n">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>43.6</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>79</v>
+      <c r="A3" s="3" t="n">
+        <v>35</v>
       </c>
       <c r="B3" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>183</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="F4" t="n">
+        <v>210</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>42</v>
-      </c>
-      <c r="C3" t="n">
-        <v>81</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>96</v>
-      </c>
-      <c r="E3" t="n">
-        <v>74</v>
-      </c>
-      <c r="F3" t="n">
-        <v>372</v>
-      </c>
-      <c r="G3" t="n">
-        <v>74.40000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>37</v>
-      </c>
-      <c r="B4" t="n">
-        <v>84</v>
-      </c>
-      <c r="C4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>78</v>
-      </c>
-      <c r="F4" t="n">
-        <v>364</v>
-      </c>
-      <c r="G4" t="n">
-        <v>72.8</v>
       </c>
     </row>
   </sheetData>
@@ -990,72 +990,72 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>97</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>31</v>
+      <c r="A2" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>49</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B3" t="n">
-        <v>80</v>
+        <v>20</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>57.8</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>39</v>
-      </c>
-      <c r="C4" t="n">
-        <v>81</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="n">
-        <v>46</v>
+      <c r="A4" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66</v>
+      </c>
+      <c r="E4" t="n">
+        <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>51.2</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
